--- a/000이형주/2022-01-29 CFXT 안상구 이형주 거래내역.xlsx
+++ b/000이형주/2022-01-29 CFXT 안상구 이형주 거래내역.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="18315" windowHeight="8745"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>안상구 구입</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -46,7 +46,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>가격 방어</t>
+    <t>2차 구입</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -166,15 +170,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -192,7 +196,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4581525" y="2143125"/>
+          <a:off x="4819650" y="1257300"/>
           <a:ext cx="4457700" cy="1066800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -206,15 +210,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -232,7 +236,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4476750" y="1476375"/>
+          <a:off x="4752975" y="762000"/>
           <a:ext cx="4400550" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -245,16 +249,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -264,7 +268,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -272,8 +276,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5219700" y="76200"/>
-          <a:ext cx="2266950" cy="676275"/>
+          <a:off x="485775" y="2305050"/>
+          <a:ext cx="8353425" cy="1276350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -571,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -583,7 +587,7 @@
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -626,7 +630,7 @@
         <v>150000</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E12" si="0">E2+C3-D3</f>
+        <f t="shared" ref="E3:E8" si="0">E2+C3-D3</f>
         <v>749310</v>
       </c>
     </row>
@@ -635,36 +639,76 @@
         <v>44582</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3">
-        <v>49495</v>
+        <v>49000</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" si="0"/>
-        <v>699815</v>
+        <v>700310</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="2">
+        <v>44590</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>210000</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>910310</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="2">
+        <v>44590</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>80000</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>990310</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="2">
+        <v>44590</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>399</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>990709</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="2">
+        <v>44590</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>1040709</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
@@ -674,84 +718,49 @@
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>210000</v>
+        <v>32000</v>
       </c>
       <c r="E9" s="1">
-        <f>E4+C9-D9</f>
-        <v>909815</v>
+        <f t="shared" ref="E9:E10" si="1">E8+C9-D9</f>
+        <v>1072709</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>80000</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>989815</v>
+        <v>186202</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>1258911</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2">
-        <v>44590</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1">
-        <v>894</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>990709</v>
+      <c r="C11" s="5">
+        <f>SUM(C5:C10)</f>
+        <v>558601</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2">
-        <v>44590</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>50000</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>1040709</v>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="2">
-        <v>44590</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>32000</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" ref="E13" si="1">E12+C13-D13</f>
-        <v>1072709</v>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="C14" s="5">
-        <f>SUM(C9:C13)</f>
-        <v>372894</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="G16" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
